--- a/___Algebra_Lineal_-Notas___/tareas/DavidCorzo-Tarea8.xlsx
+++ b/___Algebra_Lineal_-Notas___/tareas/DavidCorzo-Tarea8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\4_Semestre-[Julio-Noviembre-2020]\____SumaDeCursosUFM2.2____\___Algebra_Lineal_-Notas___\tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E060EF8-A43B-42E6-A688-A4268D41648A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F830948-24A2-44A5-A541-28E5851A58E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="14100" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mlineal" sheetId="1" r:id="rId1"/>
@@ -787,9 +787,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.00000000"/>
-    <numFmt numFmtId="177" formatCode="0.000000000"/>
-    <numFmt numFmtId="178" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1155,9 +1155,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5633,8 +5633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5717,7 +5717,7 @@
         <v>0.76</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" ref="C9:C36" si="0">$K$16+$K$17*A9</f>
+        <f>$K$16+$K$17*A9</f>
         <v>0.79484512081115355</v>
       </c>
       <c r="D9" s="9">
@@ -5730,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="29">
-        <f>A9</f>
+        <f t="shared" ref="G9:G36" si="0">A9</f>
         <v>324</v>
       </c>
       <c r="H9" s="31">
@@ -5751,11 +5751,11 @@
         <v>0.72</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C9:C36" si="2">$K$16+$K$17*A10</f>
         <v>0.69825300230115062</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" ref="D9:D36" si="2">B10-C10</f>
+        <f t="shared" ref="D10:D36" si="3">B10-C10</f>
         <v>2.1746997698849357E-2</v>
       </c>
       <c r="F10" s="28">
@@ -5763,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="29">
-        <f>A10</f>
+        <f t="shared" si="0"/>
         <v>316</v>
       </c>
       <c r="H10" s="31">
@@ -5783,11 +5783,11 @@
         <v>0.8</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.77069709118365282</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9302908816347228E-2</v>
       </c>
       <c r="F11" s="28">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="29">
-        <f>A11</f>
+        <f t="shared" si="0"/>
         <v>322</v>
       </c>
       <c r="H11" s="31">
@@ -5812,11 +5812,11 @@
         <v>0.65</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.67410497267364988</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.410497267364986E-2</v>
       </c>
       <c r="F12" s="28">
@@ -5824,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="29">
-        <f>A12</f>
+        <f t="shared" si="0"/>
         <v>314</v>
       </c>
       <c r="H12" s="31">
@@ -5844,11 +5844,11 @@
         <v>0.9</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.86728920969365575</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2710790306344273E-2</v>
       </c>
       <c r="F13" s="28">
@@ -5856,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="29">
-        <f>A13</f>
+        <f t="shared" si="0"/>
         <v>330</v>
       </c>
       <c r="H13" s="31">
@@ -5880,11 +5880,11 @@
         <v>0.75</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.75862307636990245</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.6230763699024493E-3</v>
       </c>
       <c r="F14" s="28">
@@ -5892,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="29">
-        <f>A14</f>
+        <f t="shared" si="0"/>
         <v>321</v>
       </c>
       <c r="H14" s="31">
@@ -5915,11 +5915,11 @@
         <v>0.68</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.60166088379114768</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8339116208852366E-2</v>
       </c>
       <c r="F15" s="28">
@@ -5927,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="29">
-        <f>A15</f>
+        <f t="shared" si="0"/>
         <v>308</v>
       </c>
       <c r="H15" s="31">
@@ -5944,11 +5944,11 @@
         <v>0.5</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52921679490864548</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.9216794908645483E-2</v>
       </c>
       <c r="F16" s="28">
@@ -5956,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="29">
-        <f>A16</f>
+        <f t="shared" si="0"/>
         <v>302</v>
       </c>
       <c r="H16" s="31">
@@ -5980,11 +5980,11 @@
         <v>0.52</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54129080972239585</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.1290809722395831E-2</v>
       </c>
       <c r="F17" s="28">
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="29">
-        <f>A17</f>
+        <f t="shared" si="0"/>
         <v>303</v>
       </c>
       <c r="H17" s="31">
@@ -6015,11 +6015,11 @@
         <v>0.64</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.64995694304614915</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.9569430461491359E-3</v>
       </c>
       <c r="F18" s="28">
@@ -6027,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="29">
-        <f>A18</f>
+        <f t="shared" si="0"/>
         <v>312</v>
       </c>
       <c r="H18" s="31">
@@ -6044,11 +6044,11 @@
         <v>0.8</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.81899315043865428</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.8993150438654238E-2</v>
       </c>
       <c r="F19" s="28">
@@ -6056,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="29">
-        <f>A19</f>
+        <f t="shared" si="0"/>
         <v>326</v>
       </c>
       <c r="H19" s="31">
@@ -6077,11 +6077,11 @@
         <v>0.71</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.72240103192865135</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.2401031928651385E-2</v>
       </c>
       <c r="F20" s="28">
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="29">
-        <f>A20</f>
+        <f t="shared" si="0"/>
         <v>318</v>
       </c>
       <c r="H20" s="31">
@@ -6106,11 +6106,11 @@
         <v>0.92</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.92765928376240758</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.6592837624075427E-3</v>
       </c>
       <c r="F21" s="28">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="29">
-        <f>A21</f>
+        <f t="shared" si="0"/>
         <v>335</v>
       </c>
       <c r="H21" s="31">
@@ -6135,11 +6135,11 @@
         <v>0.85</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.84314118006615502</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.8588199338449618E-3</v>
       </c>
       <c r="F22" s="28">
@@ -6147,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="29">
-        <f>A22</f>
+        <f t="shared" si="0"/>
         <v>328</v>
       </c>
       <c r="H22" s="31">
@@ -6164,11 +6164,11 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56543883934989658</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5611606501033686E-3</v>
       </c>
       <c r="F23" s="28">
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="29">
-        <f>A23</f>
+        <f t="shared" si="0"/>
         <v>305</v>
       </c>
       <c r="H23" s="31">
@@ -6193,11 +6193,11 @@
         <v>0.9</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.90351125413490685</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.5112541349068271E-3</v>
       </c>
       <c r="F24" s="28">
@@ -6205,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="29">
-        <f>A24</f>
+        <f t="shared" si="0"/>
         <v>333</v>
       </c>
       <c r="H24" s="31">
@@ -6222,11 +6222,11 @@
         <v>0.7</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.68617898748740025</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3821012512599706E-2</v>
       </c>
       <c r="F25" s="28">
@@ -6234,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="29">
-        <f>A25</f>
+        <f t="shared" si="0"/>
         <v>315</v>
       </c>
       <c r="H25" s="31">
@@ -6251,11 +6251,11 @@
         <v>0.62</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.61373489860489805</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2651013951019463E-3</v>
       </c>
       <c r="F26" s="28">
@@ -6263,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="29">
-        <f>A26</f>
+        <f t="shared" si="0"/>
         <v>309</v>
       </c>
       <c r="H26" s="31">
@@ -6280,11 +6280,11 @@
         <v>0.89</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.87936322450740612</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0636775492593897E-2</v>
       </c>
       <c r="F27" s="28">
@@ -6292,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="29">
-        <f>A27</f>
+        <f t="shared" si="0"/>
         <v>331</v>
       </c>
       <c r="H27" s="31">
@@ -6309,11 +6309,11 @@
         <v>0.77</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.74654906155615208</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3450938443847935E-2</v>
       </c>
       <c r="F28" s="28">
@@ -6321,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="29">
-        <f>A28</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="H28" s="31">
@@ -6338,11 +6338,11 @@
         <v>0.78</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.78277110599740318</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.771105997403156E-3</v>
       </c>
       <c r="F29" s="28">
@@ -6350,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="29">
-        <f>A29</f>
+        <f t="shared" si="0"/>
         <v>323</v>
       </c>
       <c r="H29" s="31">
@@ -6367,11 +6367,11 @@
         <v>0.91</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.89143723932115648</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8562760678843548E-2</v>
       </c>
       <c r="F30" s="28">
@@ -6379,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="29">
-        <f>A30</f>
+        <f t="shared" si="0"/>
         <v>332</v>
       </c>
       <c r="H30" s="31">
@@ -6396,11 +6396,11 @@
         <v>0.5</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.50506876528114475</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.0687652811447492E-3</v>
       </c>
       <c r="F31" s="28">
@@ -6408,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="29">
-        <f>A31</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="H31" s="31">
@@ -6425,11 +6425,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.55336482453614622</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.3648245361461715E-3</v>
       </c>
       <c r="F32" s="28">
@@ -6437,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="29">
-        <f>A32</f>
+        <f t="shared" si="0"/>
         <v>304</v>
       </c>
       <c r="H32" s="31">
@@ -6454,11 +6454,11 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56543883934989658</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5611606501033686E-3</v>
       </c>
       <c r="F33" s="28">
@@ -6466,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="29">
-        <f>A33</f>
+        <f t="shared" si="0"/>
         <v>305</v>
       </c>
       <c r="H33" s="31">
@@ -6483,11 +6483,11 @@
         <v>0.5</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.51714278009489512</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.7142780094895116E-2</v>
       </c>
       <c r="F34" s="28">
@@ -6495,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="29">
-        <f>A34</f>
+        <f t="shared" si="0"/>
         <v>301</v>
       </c>
       <c r="H34" s="31">
@@ -6512,11 +6512,11 @@
         <v>0.93</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.93973329857615795</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.7332985761579005E-3</v>
       </c>
       <c r="F35" s="28">
@@ -6524,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="29">
-        <f>A35</f>
+        <f t="shared" si="0"/>
         <v>336</v>
       </c>
       <c r="H35" s="31">
@@ -6541,11 +6541,11 @@
         <v>0.7</v>
       </c>
       <c r="C36" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.71032701711490098</v>
       </c>
       <c r="D36" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.0327017114901027E-2</v>
       </c>
       <c r="F36" s="19">
@@ -6553,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="20">
-        <f>A36</f>
+        <f t="shared" si="0"/>
         <v>317</v>
       </c>
       <c r="H36" s="32">
@@ -7554,8 +7554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7647,11 +7647,11 @@
         <v>2</v>
       </c>
       <c r="I3" s="27">
-        <f t="shared" ref="I3:I11" si="2">H3^2</f>
+        <f>H3^2</f>
         <v>4</v>
       </c>
       <c r="J3" s="31">
-        <f t="shared" ref="J3:J11" si="3">C3</f>
+        <f t="shared" ref="J3:J11" si="2">C3</f>
         <v>50000</v>
       </c>
     </row>
@@ -7680,11 +7680,11 @@
         <v>3</v>
       </c>
       <c r="I4" s="27">
+        <f>H4^2</f>
+        <v>9</v>
+      </c>
+      <c r="J4" s="31">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J4" s="31">
-        <f t="shared" si="3"/>
         <v>60000</v>
       </c>
     </row>
@@ -7713,11 +7713,11 @@
         <v>4</v>
       </c>
       <c r="I5" s="27">
+        <f>H5^2</f>
+        <v>16</v>
+      </c>
+      <c r="J5" s="31">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="J5" s="31">
-        <f t="shared" si="3"/>
         <v>80000</v>
       </c>
     </row>
@@ -7746,11 +7746,11 @@
         <v>5</v>
       </c>
       <c r="I6" s="27">
+        <f>H6^2</f>
+        <v>25</v>
+      </c>
+      <c r="J6" s="31">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="J6" s="31">
-        <f t="shared" si="3"/>
         <v>110000</v>
       </c>
     </row>
@@ -7779,11 +7779,11 @@
         <v>6</v>
       </c>
       <c r="I7" s="27">
+        <f>H7^2</f>
+        <v>36</v>
+      </c>
+      <c r="J7" s="31">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="J7" s="31">
-        <f t="shared" si="3"/>
         <v>150000</v>
       </c>
     </row>
@@ -7812,11 +7812,11 @@
         <v>7</v>
       </c>
       <c r="I8" s="27">
+        <f>H8^2</f>
+        <v>49</v>
+      </c>
+      <c r="J8" s="31">
         <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="J8" s="31">
-        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
     </row>
@@ -7845,11 +7845,11 @@
         <v>8</v>
       </c>
       <c r="I9" s="27">
+        <f>H9^2</f>
+        <v>64</v>
+      </c>
+      <c r="J9" s="31">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="J9" s="31">
-        <f t="shared" si="3"/>
         <v>300000</v>
       </c>
     </row>
@@ -7878,11 +7878,11 @@
         <v>9</v>
       </c>
       <c r="I10" s="27">
+        <f>H10^2</f>
+        <v>81</v>
+      </c>
+      <c r="J10" s="31">
         <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="J10" s="31">
-        <f t="shared" si="3"/>
         <v>500000</v>
       </c>
     </row>
@@ -7911,11 +7911,11 @@
         <v>10</v>
       </c>
       <c r="I11" s="37">
+        <f>H11^2</f>
+        <v>100</v>
+      </c>
+      <c r="J11" s="32">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J11" s="32">
-        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
@@ -12424,7 +12424,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
